--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -22,9 +22,6 @@
     <t>Sponsor Protocol Number</t>
   </si>
   <si>
-    <t>Role (Principal/Sub)</t>
-  </si>
-  <si>
     <t>Member ID</t>
   </si>
   <si>
@@ -67,15 +64,9 @@
     <t>Medical License Number</t>
   </si>
   <si>
-    <t>Principal</t>
-  </si>
-  <si>
     <t>#6789</t>
   </si>
   <si>
-    <t>Sub</t>
-  </si>
-  <si>
     <t>0910/1112</t>
   </si>
   <si>
@@ -131,6 +122,15 @@
   </si>
   <si>
     <t>Bhatkal</t>
+  </si>
+  <si>
+    <t>Role (PI/Sub I)</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Sub I</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -589,135 +589,135 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O2" s="4">
         <v>889</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Project Number</t>
   </si>
@@ -67,9 +67,6 @@
     <t>#6789</t>
   </si>
   <si>
-    <t>0910/1112</t>
-  </si>
-  <si>
     <t>0910</t>
   </si>
   <si>
@@ -131,6 +128,15 @@
   </si>
   <si>
     <t>Sub I</t>
+  </si>
+  <si>
+    <t>0910/0000</t>
+  </si>
+  <si>
+    <t>Project Number 2</t>
+  </si>
+  <si>
+    <t>0000/1112</t>
   </si>
 </sst>
 </file>
@@ -533,191 +539,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="4">
+        <v>889</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="4">
-        <v>889</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>34</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Project Number</t>
   </si>
@@ -70,18 +70,6 @@
     <t>0910</t>
   </si>
   <si>
-    <t>BOHANNON STEVEN RAY</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Bohannon</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
     <t>Maria's</t>
   </si>
   <si>
@@ -112,15 +100,6 @@
     <t>Williams</t>
   </si>
   <si>
-    <t>Yasim Bhatkal</t>
-  </si>
-  <si>
-    <t>Yasim</t>
-  </si>
-  <si>
-    <t>Bhatkal</t>
-  </si>
-  <si>
     <t>Role (PI/Sub I)</t>
   </si>
   <si>
@@ -137,6 +116,12 @@
   </si>
   <si>
     <t>0000/1112</t>
+  </si>
+  <si>
+    <t>Sponsor Protocol Number 2</t>
+  </si>
+  <si>
+    <t>887144adg</t>
   </si>
 </sst>
 </file>
@@ -539,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,186 +536,163 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5703125" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4">
+        <v>889</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="4">
-        <v>889</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Project Number</t>
   </si>
@@ -91,22 +91,10 @@
     <t>Jones</t>
   </si>
   <si>
-    <t>Joseph williams</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
     <t>Role (PI/Sub I)</t>
   </si>
   <si>
     <t>PI</t>
-  </si>
-  <si>
-    <t>Sub I</t>
   </si>
   <si>
     <t>0910/0000</t>
@@ -524,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +561,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -632,19 +620,19 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>22</v>
@@ -679,20 +667,6 @@
       </c>
       <c r="S2" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Project Number</t>
   </si>
@@ -110,13 +110,61 @@
   </si>
   <si>
     <t>887144adg</t>
+  </si>
+  <si>
+    <t>MARTIN S MOK</t>
+  </si>
+  <si>
+    <t>Jolly, Jr., Henry W.,</t>
+  </si>
+  <si>
+    <t>Xing H. Rosie</t>
+  </si>
+  <si>
+    <t>VAN DER HEIJDE, DESIREE</t>
+  </si>
+  <si>
+    <t>0506/0708</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Mok</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>jolly</t>
+  </si>
+  <si>
+    <t>Xing</t>
+  </si>
+  <si>
+    <t>Rosie</t>
+  </si>
+  <si>
+    <t>Van Der</t>
+  </si>
+  <si>
+    <t>Heijde</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Sub I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,16 +199,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,11 +243,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +286,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -667,6 +746,119 @@
       </c>
       <c r="S2" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>1122</v>
+      </c>
+      <c r="E3">
+        <v>2345</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>1122</v>
+      </c>
+      <c r="E4">
+        <v>2345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>1122</v>
+      </c>
+      <c r="E5">
+        <v>2345</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>1122</v>
+      </c>
+      <c r="E6">
+        <v>2345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -591,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -749,40 +749,29 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <v>1122</v>
-      </c>
-      <c r="E3">
-        <v>2345</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
@@ -796,14 +785,20 @@
       <c r="E4">
         <v>2345</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -823,13 +818,13 @@
         <v>2345</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -849,15 +844,41 @@
         <v>2345</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>1122</v>
+      </c>
+      <c r="E7">
+        <v>2345</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K7" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
+++ b/Documents/Technical/TestUpload/DDAS_Upload_CaseStudy_5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Project Number</t>
   </si>
@@ -158,6 +158,36 @@
   </si>
   <si>
     <t>Sub I</t>
+  </si>
+  <si>
+    <t>Huda, Syed</t>
+  </si>
+  <si>
+    <t>Syed</t>
+  </si>
+  <si>
+    <t>Huda</t>
+  </si>
+  <si>
+    <t>0000/0004</t>
+  </si>
+  <si>
+    <t>0000/0000</t>
+  </si>
+  <si>
+    <t>Liang, Cheng Yi</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>St. Petersburg</t>
   </si>
 </sst>
 </file>
@@ -591,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,64 +732,66 @@
         <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9951</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="4"/>
-      <c r="O2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>889</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2274</v>
+      </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="8"/>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="4"/>
@@ -769,67 +801,80 @@
       <c r="R3" s="8"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>1122</v>
-      </c>
-      <c r="E4">
-        <v>2345</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" t="s">
-        <v>46</v>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>889</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>1122</v>
-      </c>
-      <c r="E5">
-        <v>2345</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -843,14 +888,20 @@
       <c r="E6">
         <v>2345</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>41</v>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -870,15 +921,67 @@
         <v>2345</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1122</v>
+      </c>
+      <c r="E8">
+        <v>2345</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>1122</v>
+      </c>
+      <c r="E9">
+        <v>2345</v>
+      </c>
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K9" t="s">
         <v>35</v>
       </c>
     </row>
